--- a/dtree/outputs/ret_level_sensitivity.xlsx
+++ b/dtree/outputs/ret_level_sensitivity.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1489.120402500587</v>
+        <v>1449.065440567477</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1744.646735508468</v>
+        <v>1682.753624963989</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1516.622012765781</v>
+        <v>1447.771053132694</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1223.621042265379</v>
+        <v>1152.971156719062</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>989.5752648999618</v>
+        <v>920.9791591586903</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>812.5983746583945</v>
+        <v>743.1989985483677</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>667.2691748159618</v>
+        <v>597.3139524519362</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>546.9997986307261</v>
+        <v>476.6218033999108</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>446.2206672251579</v>
+        <v>375.5045118688228</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>360.6934720190938</v>
+        <v>289.6988298118759</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1539.652137916648</v>
+        <v>1520.321676520881</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1798.534407174584</v>
+        <v>1758.337554657989</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1605.128350193415</v>
+        <v>1551.515582945341</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1359.324280113211</v>
+        <v>1301.993310865502</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1137.99581776511</v>
+        <v>1078.703789113911</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>954.4800125276602</v>
+        <v>893.936180847612</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>804.0009105182845</v>
+        <v>742.5533736725284</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>679.6136701245198</v>
+        <v>617.467448569966</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>575.4812024851811</v>
+        <v>512.7732686154354</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>487.1758254005422</v>
+        <v>424.0048685738068</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1710.743874502887</v>
+        <v>1675.191658989845</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1539.14587450261</v>
+        <v>1494.721883091467</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1297.244070395942</v>
+        <v>1248.611381691546</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1079.232909439541</v>
+        <v>1028.201902828336</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>898.3337700262188</v>
+        <v>845.7003259388883</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>749.9136891941372</v>
+        <v>696.0985646797196</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>627.1716985078355</v>
+        <v>572.434850711369</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>524.3782701491681</v>
+        <v>468.8976854109573</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>437.1817535677822</v>
+        <v>381.087104637552</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1534.580366993303</v>
+        <v>1506.109577995753</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1370.225907369497</v>
+        <v>1332.950047786653</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1138.042258024791</v>
+        <v>1096.311567089002</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>928.3185541760114</v>
+        <v>883.9216920269789</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>753.9735060464634</v>
+        <v>707.7453695961514</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>610.7213386548606</v>
+        <v>563.124656019628</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>492.1154612780436</v>
+        <v>443.4444915726271</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>392.6927589749808</v>
+        <v>343.1520477882024</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>308.2905526682575</v>
+        <v>258.0302704944485</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1169.236208704587</v>
+        <v>1137.361745777222</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>948.1222962533139</v>
+        <v>911.703372105219</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>747.8842652918096</v>
+        <v>708.6539849279947</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>581.0708451378557</v>
+        <v>539.8734079048023</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>443.7761254645669</v>
+        <v>401.0946340445006</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>329.9502208993889</v>
+        <v>286.0979061870754</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>234.4308494999699</v>
+        <v>189.6277732654353</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>153.269867417925</v>
+        <v>107.6785533116764</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>969.1862809062275</v>
+        <v>941.4207343773982</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>758.5799238028659</v>
+        <v>726.265051145574</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>567.3910907909598</v>
+        <v>532.1945877320786</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>407.7926907820608</v>
+        <v>370.5527283406426</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>276.2238706703368</v>
+        <v>237.4312466326659</v>
       </c>
     </row>
     <row r="53">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>167.0042713507139</v>
+        <v>126.9816923928614</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>75.25444331670521</v>
+        <v>34.23044991263544</v>
       </c>
     </row>
     <row r="55">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-2.770906211044399</v>
+        <v>-44.6267212899925</v>
       </c>
     </row>
     <row r="56">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>582.0774834612132</v>
+        <v>552.9903076125372</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>398.9555543747277</v>
+        <v>366.9589104992481</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>245.8137814810872</v>
+        <v>211.7330047230122</v>
       </c>
     </row>
     <row r="59">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>119.3847342869771</v>
+        <v>83.71151428529014</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14.31007123169537</v>
+        <v>-22.62884955591822</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-74.04101552837427</v>
+        <v>-112.0127849491428</v>
       </c>
     </row>
     <row r="62">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-149.2345321539077</v>
+        <v>-188.065682112287</v>
       </c>
     </row>
   </sheetData>

--- a/dtree/outputs/ret_level_sensitivity.xlsx
+++ b/dtree/outputs/ret_level_sensitivity.xlsx
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1675.191658989845</v>
+        <v>1879.608760016147</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1655.353826948334</v>
+        <v>1872.70833147886</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1624.45675699146</v>
+        <v>1852.61774475008</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1585.793572384267</v>
+        <v>1822.988234314474</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1541.904781704421</v>
+        <v>1786.674403157196</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1494.721883091466</v>
+        <v>1745.874615795742</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1445.693664789677</v>
+        <v>1702.25949194861</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1395.892240214298</v>
+        <v>1657.082776385526</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1346.099333070508</v>
+        <v>1611.273388107098</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1296.874979123266</v>
+        <v>1565.509850870335</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1248.611381691546</v>
+        <v>1520.279361933564</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1201.57464978662</v>
+        <v>1475.924038266588</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1155.936869118886</v>
+        <v>1432.676762002742</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1111.800581700858</v>
+        <v>1390.688753272352</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1069.217370442355</v>
+        <v>1350.050653083261</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1028.201902828336</v>
+        <v>1310.808564687997</v>
       </c>
     </row>
     <row r="18">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>988.7424973703221</v>
+        <v>1272.976206577506</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>950.8090391736606</v>
+        <v>1236.544082360581</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>914.3588815831138</v>
+        <v>1201.486371240702</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>879.3412221794962</v>
+        <v>1167.766082327189</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>845.7003259388872</v>
+        <v>1135.338890051725</v>
       </c>
     </row>
     <row r="23">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>813.3778793898143</v>
+        <v>1104.155970052505</v>
       </c>
     </row>
     <row r="24">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>782.3146914003563</v>
+        <v>1074.166079308563</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>752.4519041386528</v>
+        <v>1045.317066244124</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>723.7318380701357</v>
+        <v>1017.556952066964</v>
       </c>
     </row>
     <row r="27">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>696.0985646797186</v>
+        <v>990.834690646679</v>
       </c>
     </row>
     <row r="28">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>669.4982776881151</v>
+        <v>965.100688341877</v>
       </c>
     </row>
     <row r="29">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>643.8795161383794</v>
+        <v>940.3071454584576</v>
       </c>
     </row>
     <row r="30">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>619.1932795381875</v>
+        <v>916.4082660068872</v>
       </c>
     </row>
     <row r="31">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>595.3930652454327</v>
+        <v>893.3603710061341</v>
       </c>
     </row>
     <row r="32">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>572.434850711369</v>
+        <v>871.1219419005878</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>550.277037462519</v>
+        <v>849.6536140605947</v>
       </c>
     </row>
     <row r="34">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>528.880369366662</v>
+        <v>828.9181353297315</v>
       </c>
     </row>
     <row r="35">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>508.207834452519</v>
+        <v>808.8803007833022</v>
       </c>
     </row>
     <row r="36">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>488.2245570816962</v>
+        <v>789.5068719840052</v>
       </c>
     </row>
     <row r="37">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>468.8976854109573</v>
+        <v>770.7664868425579</v>
       </c>
     </row>
     <row r="38">
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>450.1962776854603</v>
+        <v>752.6295645456497</v>
       </c>
     </row>
     <row r="39">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>432.0911898573728</v>
+        <v>735.0682087736591</v>
       </c>
     </row>
     <row r="40">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>414.554966244009</v>
+        <v>718.0561114986716</v>
       </c>
     </row>
     <row r="41">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>397.5617343607751</v>
+        <v>701.5684589557166</v>
       </c>
     </row>
     <row r="42">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>381.0871046375505</v>
+        <v>685.5818408602438</v>
       </c>
     </row>
     <row r="43">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>365.1080754153118</v>
+        <v>670.0741635597434</v>
       </c>
     </row>
     <row r="44">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>349.6029433944666</v>
+        <v>655.0245675242919</v>
       </c>
     </row>
     <row r="45">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>334.5512195459094</v>
+        <v>640.4133493747892</v>
       </c>
     </row>
     <row r="46">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>319.93355038392</v>
+        <v>626.2218884996455</v>
       </c>
     </row>
     <row r="47">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>305.731644424228</v>
+        <v>612.4325782062731</v>
       </c>
     </row>
     <row r="48">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>291.9282036015634</v>
+        <v>599.0287612819266</v>
       </c>
     </row>
     <row r="49">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>278.5068593915353</v>
+        <v>585.994669790823</v>
       </c>
     </row>
     <row r="50">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>265.4521133666273</v>
+        <v>573.3153689048364</v>
       </c>
     </row>
     <row r="51">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>252.7492819110728</v>
+        <v>560.9767045483815</v>
       </c>
     </row>
     <row r="52">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>240.3844448218084</v>
+        <v>548.9652546310896</v>
       </c>
     </row>
     <row r="53">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>228.3443975298663</v>
+        <v>537.2682836414482</v>
       </c>
     </row>
     <row r="54">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>216.6166066871762</v>
+        <v>525.8737003789743</v>
       </c>
     </row>
     <row r="55">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>205.1891688763399</v>
+        <v>514.7700186100285</v>
       </c>
     </row>
     <row r="56">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>194.0507722147012</v>
+        <v>503.9463204420151</v>
       </c>
     </row>
     <row r="57">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>183.1906606382837</v>
+        <v>493.3922222215153</v>
       </c>
     </row>
     <row r="58">
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>172.5986006654772</v>
+        <v>483.0978427734255</v>
       </c>
     </row>
     <row r="59">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>162.2648504544051</v>
+        <v>473.0537738098259</v>
       </c>
     </row>
     <row r="60">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>152.1801309813488</v>
+        <v>463.2510523488398</v>
       </c>
     </row>
     <row r="61">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>142.335599180597</v>
+        <v>453.6811349950307</v>
       </c>
     </row>
     <row r="62">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>743.1989985483677</v>
+        <v>1132.513751629532</v>
       </c>
     </row>
     <row r="63">
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>836.7356933519003</v>
+        <v>1204.613673277342</v>
       </c>
     </row>
     <row r="64">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>884.2159435261842</v>
+        <v>1230.871634042808</v>
       </c>
     </row>
     <row r="65">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>895.8825892282584</v>
+        <v>1222.189455187303</v>
       </c>
     </row>
     <row r="66">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>880.6026075779114</v>
+        <v>1187.837790446574</v>
       </c>
     </row>
     <row r="67">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>845.7003259388883</v>
+        <v>1135.338890051725</v>
       </c>
     </row>
     <row r="68">
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>797.0150398027962</v>
+        <v>1070.58347751069</v>
       </c>
     </row>
     <row r="69">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>739.0754499463752</v>
+        <v>998.0579537941217</v>
       </c>
     </row>
     <row r="70">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>675.3162719905234</v>
+        <v>921.1014240532265</v>
       </c>
     </row>
     <row r="71">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>608.2930327652771</v>
+        <v>842.1484953439607</v>
       </c>
     </row>
     <row r="72">
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>539.8734079048018</v>
+        <v>762.9385077627255</v>
       </c>
     </row>
     <row r="73">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>471.3973858623135</v>
+        <v>684.6862534358118</v>
       </c>
     </row>
     <row r="74">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>403.8061413002682</v>
+        <v>608.2164709370491</v>
       </c>
     </row>
     <row r="75">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>337.743025201878</v>
+        <v>534.0673353313099</v>
       </c>
     </row>
     <row r="76">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>273.6312700001616</v>
+        <v>462.5688003560213</v>
       </c>
     </row>
     <row r="77">
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>211.7330047230112</v>
+        <v>393.9012125093449</v>
       </c>
     </row>
     <row r="78">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>152.1936479782722</v>
+        <v>328.1387813240341</v>
       </c>
     </row>
     <row r="79">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>95.07505597769165</v>
+        <v>265.2815927118892</v>
       </c>
     </row>
     <row r="80">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>40.38012392545709</v>
+        <v>205.2790404393421</v>
       </c>
     </row>
     <row r="81">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-11.92905524035235</v>
+        <v>148.0468738621572</v>
       </c>
     </row>
   </sheetData>
